--- a/data/view_test.xlsx
+++ b/data/view_test.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,12 +436,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -460,24 +460,48 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>4</t>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
